--- a/Project-v1/Documents/2-operand/NO_haza_no_forw_SOLUTION/no_haza_no_forw_SOLUTION_2_OP.xlsx
+++ b/Project-v1/Documents/2-operand/NO_haza_no_forw_SOLUTION/no_haza_no_forw_SOLUTION_2_OP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="45">
   <si>
     <t>Instructions</t>
   </si>
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,25 +239,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX50"/>
+  <dimension ref="A1:AV48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="AJ32" sqref="AJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,27 +574,27 @@
     <col min="7" max="50" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" t="s">
         <v>1</v>
       </c>
@@ -607,21 +610,21 @@
       <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="H3" t="s">
         <v>1</v>
       </c>
@@ -637,18 +640,18 @@
       <c r="L3" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="D4" s="12" t="s">
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="I4" t="s">
         <v>1</v>
       </c>
@@ -661,22 +664,22 @@
       <c r="L4" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="14" t="s">
+      <c r="M4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="D5" s="12" t="s">
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="J5" t="s">
         <v>1</v>
       </c>
@@ -692,89 +695,99 @@
       <c r="N5" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="D6" s="10" t="s">
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="K6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="K6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="L7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="M8" t="s">
         <v>1</v>
       </c>
@@ -784,39 +797,37 @@
       <c r="O8" t="s">
         <v>2</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="R8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="N9" t="s">
         <v>1</v>
       </c>
       <c r="O9" t="s">
         <v>1</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Q9" s="4" t="s">
@@ -828,64 +839,70 @@
       <c r="S9" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="10" t="s">
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="N10" s="4"/>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="O10" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="O11" s="4"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="N11" s="4"/>
       <c r="P11" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" t="s">
-        <v>1</v>
-      </c>
-      <c r="R11" s="8" t="s">
+      <c r="Q11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
         <v>2</v>
       </c>
       <c r="S11" t="s">
@@ -894,32 +911,30 @@
       <c r="T11" t="s">
         <v>4</v>
       </c>
-      <c r="U11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="U11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" s="4" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="N12" s="4"/>
+      <c r="Q12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
         <v>1</v>
       </c>
       <c r="S12" t="s">
@@ -934,141 +949,145 @@
       <c r="V12" t="s">
         <v>5</v>
       </c>
+      <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="11" t="s">
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="O13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" t="s">
+        <v>4</v>
+      </c>
+      <c r="W13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+    </row>
+    <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="S14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="T15" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
+        <v>2</v>
+      </c>
+      <c r="W15" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="O13" s="4"/>
-      <c r="R13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S13" t="s">
-        <v>1</v>
-      </c>
-      <c r="T13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U13" t="s">
-        <v>3</v>
-      </c>
-      <c r="V13" t="s">
-        <v>4</v>
-      </c>
-      <c r="W13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="P14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" t="s">
-        <v>1</v>
-      </c>
-      <c r="T14" t="s">
-        <v>1</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V14" t="s">
-        <v>3</v>
-      </c>
-      <c r="W14" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-    </row>
-    <row r="15" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="T15" t="s">
-        <v>1</v>
-      </c>
-      <c r="U15" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" t="s">
-        <v>2</v>
-      </c>
-      <c r="W15" t="s">
-        <v>3</v>
-      </c>
-      <c r="X15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="U16" t="s">
-        <v>1</v>
-      </c>
-      <c r="V16" s="4" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="U16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
         <v>1</v>
       </c>
       <c r="W16" t="s">
@@ -1080,107 +1099,117 @@
       <c r="Y16" t="s">
         <v>4</v>
       </c>
-      <c r="Z16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="Z16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="S17" s="4"/>
       <c r="V17" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W17" t="s">
         <v>1</v>
       </c>
-      <c r="X17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>3</v>
+      <c r="X17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="Z17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7"/>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="7"/>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="S18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" t="s">
         <v>1</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X18" s="4" t="s">
         <v>1</v>
       </c>
       <c r="Y18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
-      <c r="AP18" s="7"/>
-      <c r="AQ18" s="7"/>
-      <c r="AR18" s="7"/>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="T19" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="S19" s="4"/>
+      <c r="V19" s="4"/>
       <c r="X19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="Y19" t="s">
         <v>1</v>
       </c>
-      <c r="Z19" s="8" t="s">
-        <v>2</v>
+      <c r="Z19" t="s">
+        <v>1</v>
       </c>
       <c r="AA19" t="s">
         <v>2</v>
@@ -1188,158 +1217,163 @@
       <c r="AB19" t="s">
         <v>3</v>
       </c>
-      <c r="AC19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO19" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP19" s="14"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="14"/>
-      <c r="AS19" s="14"/>
-      <c r="AT19" s="14"/>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="AC19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
       <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" t="s">
         <v>1</v>
       </c>
-      <c r="Z20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="Z20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AC20" t="s">
         <v>3</v>
       </c>
-      <c r="AD20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="9"/>
-      <c r="AT20" s="9"/>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="10" t="s">
+      <c r="AD20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
       <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-      <c r="Z21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="9"/>
-      <c r="AT21" s="9"/>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="Z21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="AA22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AC22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AD22" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE22" t="s">
+      <c r="AD22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AF22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AG22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ22" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR22" s="14"/>
-      <c r="AS22" s="14"/>
-      <c r="AT22" s="14"/>
-      <c r="AU22" s="14"/>
-      <c r="AV22" s="14"/>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AB23" t="s">
+      <c r="AG22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="T23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AC23" s="4" t="s">
@@ -1348,7 +1382,7 @@
       <c r="AD23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AE23" s="4" t="s">
+      <c r="AE23" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AF23" s="4" t="s">
@@ -1360,196 +1394,116 @@
       <c r="AH23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AQ23" s="16"/>
-      <c r="AR23" s="16"/>
-      <c r="AS23" s="16"/>
-      <c r="AT23" s="16"/>
-      <c r="AU23" s="16"/>
-      <c r="AV23" s="16"/>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AC24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ24" s="16"/>
-      <c r="AR24" s="16"/>
-      <c r="AS24" s="16"/>
-      <c r="AT24" s="16"/>
-      <c r="AU24" s="16"/>
-      <c r="AV24" s="16"/>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="U25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS25" s="14" t="s">
+      <c r="AO23" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AT25" s="14"/>
-      <c r="AU25" s="14"/>
-      <c r="AV25" s="14"/>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="14"/>
-    </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="D32" s="12" t="s">
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="11"/>
+      <c r="AT23" s="11"/>
+      <c r="AU23" s="11"/>
+      <c r="AV23" s="11"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="8"/>
-      <c r="D33" s="12" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="C31" s="8"/>
+      <c r="D31" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-      <c r="D34" s="12" t="s">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="W36" s="4"/>
+    </row>
+    <row r="46" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C46" s="4"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C47" s="4"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="4"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="4"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="52">
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
     <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="AL15:AQ15"/>
-    <mergeCell ref="AQ22:AV22"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="AS25:AX25"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="AM16:AR16"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="AO19:AT19"/>
-    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="Z11:AE11"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="S4:V4"/>
     <mergeCell ref="T5:X5"/>
-    <mergeCell ref="W7:AA7"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="U6:Z6"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="W10:AD10"/>
+    <mergeCell ref="AO23:AV23"/>
+    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="AJ14:AP14"/>
+    <mergeCell ref="AK15:AQ15"/>
+    <mergeCell ref="AL17:AR17"/>
+    <mergeCell ref="AL20:AT20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
